--- a/data/Выгрузка с прода ФОИВ.xlsx
+++ b/data/Выгрузка с прода ФОИВ.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -106,11 +106,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -400,69 +397,60 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="22.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="69.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3">
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>45334.627824074101</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/Выгрузка с прода ФОИВ.xlsx
+++ b/data/Выгрузка с прода ФОИВ.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>reg_number</t>
   </si>
@@ -397,7 +398,77 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45334.627824074101</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Выгрузка с прода ФОИВ.xlsx
+++ b/data/Выгрузка с прода ФОИВ.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11430"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>reg_number</t>
   </si>
@@ -398,77 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45334.627824074101</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Выгрузка с прода ФОИВ.xlsx
+++ b/data/Выгрузка с прода ФОИВ.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Выгрузка с прода ФОИВ.xlsx
+++ b/data/Выгрузка с прода ФОИВ.xlsx
@@ -397,7 +397,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Выгрузка с прода ФОИВ.xlsx
+++ b/data/Выгрузка с прода ФОИВ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>reg_number</t>
   </si>
@@ -50,29 +50,74 @@
     <t>N</t>
   </si>
   <si>
-    <t>774014/506</t>
-  </si>
-  <si>
     <t>REQ_MVD</t>
   </si>
   <si>
-    <t>26138f17-3757-4849-bcea-4f1eb68fb4da</t>
-  </si>
-  <si>
-    <t>["60aa15b5-f732-448a-96bb-83d617b01375"]</t>
-  </si>
-  <si>
-    <t>{"regDate":"2024-02-12","targets":[{"id":"69c8aa9b-48bd-4081-b91c-5bbcdf520e0c","name":"Любовь","surname":"Любовой","products":[{"id":"74cca66d-0c37-4f38-a20c-360db6802fca","attributes":[{"id":"6acd8ec9-b843-4094-8efd-ff232c03280e","attributeType":{"name":"IP адреса/Log файлы","codeName":"ATTR_IP_ADDRESS"}},{"id":"4ab539c8-809e-4c7b-b49b-510e81e94923","attributeType":{"name":"Данные о лицах использовавших ip адреса","codeName":"ATTR_USED_IP_ADDRESS_PERS_DATA"}}],"productType":{"name":"ДБО","codeName":"PROD_DBO"}},{"id":"c9d5260a-8c82-4550-93dc-895bc582d68a","attributes":[{"id":"e157af20-cb7a-4202-8eb8-3efc8f7b633a","attributeType":{"name":"Данные по счетам/банковским картам получателя перевода и операции по ним","codeName":"ATTR_RECIPIENT_ACCOUNT_OPERATION_INFO"}}],"productType":{"name":"Карта","codeName":"PROD_CARD"}},{"id":"66cd07be-1604-47c1-8e63-2e28d2379937","value":"1111111111111111111","values":["1111111111111111111"],"attributes":[{"id":"7e38c8b3-db74-433f-8f48-2a6fdf0c4ded","attributeType":{"name":"Выписки","codeName":"ATTR_BANK_STATEMENT"}},{"id":"6fbedeb3-4438-4af7-9dd1-37e7a4d0d8ff","attributeType":{"name":"Сведения о наличии счетов и банковских карт (справки)","codeName":"ATTR_EXIST_ACCOUNT_CARD_CERT"}}],"productType":{"name":"Счет","codeName":"PROD_ACCOUNT"}}],"birthDate":"1975-11-04","patronymic":"Николаевне","targetType":{"name":"Физическое лицо","codeName":"TARGET_INDIVIDUAL"}}],"isParsed":true,"repeated":false,"applicant":{"name":"МОтд МВД России «Чухломское»","address":"111111, г. Чунеома, ул. Взбободы, д. 29","applicantType":{"name":"МВД","codeName":"FOIV_MVD"}},"regNumber":"774014/506","isNeedDisk":false,"documentType":{"name":"Запрос МВД","codeName":"REQ_MVD"},"isPersonally":false,"requestBasis":{"date":"2024-01-25","values":["11111111111111"],"requestBasisType":{"name":"Уголовное дело","codeName":"BASIS_CRIMINAL_CASE"}},"requestSource":"SDO_FOIV","documentNumber":"ле","inquirySignature":{"hasStamp":false,"approverName":"Зайчиков А.Н","approverPosition":{"name":"Начальник","codeName":"POS_CHIEF"},"approverSignature":false},"isNeedExcelFormat":false}</t>
-  </si>
-  <si>
-    <t>{"dueDate":"2024-02-15","regDate":"2024-02-12","targets":[{"id":"69c8aa9b-48bd-4081-b91c-5bbcdf520e0c","name":"Любовь","surname":"Любова","products":[{"id":"74cca66d-0c37-4f38-a20c-360db6802fca","rejected":false,"attributes":[{"id":"6acd8ec9-b843-4094-8efd-ff232c03280e","toDate":"2023-10-15","isLegal":true,"fromDate":"2023-09-15","rejected":false,"sourceDates":{"sourceToDate":"2023-10-15","sourceFromDate":"2023-09-15"},"attributeType":{"name":"IP адреса/Log файлы","codeName":"ATTR_IP_ADDRESS"}}],"operations":[{}],"productType":{"name":"ДБО","codeName":"PROD_DBO"}},{"id":"66cd07be-1604-47c1-8e63-2e28d2379937","value":"1111111111111111111","values":["1111111111111111111"],"rejected":false,"attributes":[{"id":"7e38c8b3-db74-433f-8f48-2a6fdf0c4ded","toDate":"2023-10-15","isLegal":true,"fromDate":"2023-09-15","rejected":false,"sourceDates":{"sourceToDate":"2023-10-15","sourceFromDate":"2023-09-15"},"attributeType":{"name":"Выписки","codeName":"ATTR_BANK_STATEMENT"}},{"id":"6fbedeb3-4438-4af7-9dd1-37e7a4d0d8ff","toDate":"2024-02-09","isLegal":true,"fromDate":"1990-10-17","rejected":false,"sourceDates":{"sourceToDate":"2024-02-09","sourceFromDate":"1990-10-17"},"attributeType":{"name":"Сведения о наличии счетов и банковских карт (справки)","codeName":"ATTR_EXIST_ACCOUNT_CARD_CERT"}},{"id":"1f416522-f5cb-48e9-b00c-2d5f86422674","toDate":"2024-02-09","isLegal":true,"fromDate":"1990-10-17","rejected":false,"sourceDates":{"sourceToDate":"2024-02-09"},"attributeType":{"name":"Анкетные данные","codeName":"ATTR_CLIENT_PERS_DATA"}}],"operations":[{}],"productType":{"name":"Счет","codeName":"PROD_ACCOUNT"}},{"id":"4709a081-d613-4761-aff1-57f5229d884b","rejected":false,"attributes":[{"id":"a89f9645-3fec-40ad-9a52-dc8f9c32111c","toDate":"2024-02-09","isLegal":true,"fromDate":"1990-10-17","rejected":false,"sourceDates":{"sourceToDate":"2024-02-09"},"attributeType":{"name":"Сведения о наличии счетов и банковских карт (справки)","codeName":"ATTR_EXIST_ACCOUNT_CARD_CERT"}}],"operations":[{}],"productType":{"name":"Счет","codeName":"PROD_ACCOUNT"}}],"rejected":false,"birthDate":"1111-11-11","patronymic":"Петросянина","targetType":{"name":"Физическое лицо","codeName":"TARGET_INDIVIDUAL"},"identityDocument":{}}],"isParsed":true,"rejected":false,"repeated":false,"applicant":{"name":"МОтд МВД России «Чухломское»","address":"111111, г. Чунеома, ул. Взбободы, д. 29","applicantType":{"name":"МВД","codeName":"FOIV_MVD"}},"regNumber":"774014/506","isNeedDisk":false,"isVerified":true,"documentType":{"name":"Запрос МВД","codeName":"REQ_MVD"},"isPersonally":false,"requestBasis":{"date":"2024-01-25","values":["11111111111111"],"legalClauseTypes":[],"requestBasisType":{"name":"Уголовное дело","codeName":"BASIS_CRIMINAL_CASE"}},"hasTechErrors":false,"requestSource":"SDO_FOIV","documentNumber":"526","inquirySignature":{"hasStamp":false,"approverName":"Зайчиков А.Н","signerSignature":false,"approverPosition":{"name":"Руководитель","codeName":"POS_MANAGER"},"approverSignature":true},"isNeedExcelFormat":false,"sdoTotalPageCount":0,"manualTaskPerformed":true,"hasBusinessLogicErrors":false}</t>
+    <t>no_target</t>
+  </si>
+  <si>
+    <t>346589</t>
+  </si>
+  <si>
+    <t>a2e6e536-4bbe-4bab-bf46-0d880441c301</t>
+  </si>
+  <si>
+    <t>2025-06-03 17:26:03.264 +0300</t>
+  </si>
+  <si>
+    <t>{"regDate": "2025-06-03", "targets": [{"id": "d9fd8edd-169d-402e-b90e-585fed962856", "products": [{"id": "eebf9059-b381-47f3-914f-6b605d011ff7", "attributes": [{"id": "d35a4e10-037a-4425-a07b-c8af16382409", "attributeType": {"name": "Анкетные данные владельца счета", "codeName": "ATTR_CLIENT_PERS_DATA"}}, {"id": "f8959893-45fb-49a4-a2e2-87afae361ac8", "attributeType": {"name": "Данные о наименовании/адресе ТП, где открыт счет", "codeName": "ATTR_OPENED_ACCOUNT_DEPT_DATA"}}, {"id": "1604f7d9-dd3b-4e95-8ea5-8687d7fea0a6", "attributeType": {"name": "Справки (сведения) об остатках", "codeName": "ATTR_ACCOUNT_BALANCE_CERT"}}], "productType": {"name": "Карта", "codeName": "PROD_CARD"}}], "targetType": {"name": "Неопределенный клиент", "codeName": "TARGET_UNDEFINED_CLIENT"}}, {"id": "9c72c4b4-7b77-4bae-a2a1-6ebae01cabdd", "products": [{"id": "f6653e70-1c1b-45b5-ab7f-075f5963c83d", "attributes": [{"id": "af9ec193-8a4e-46ec-aaa1-32c271595ef7", "attributeType": {"name": "Анкетные данные владельца счета", "codeName": "ATTR_CLIENT_PERS_DATA"}}, {"id": "ef35de2d-7ab3-459f-89d4-c3269b23df2f", "attributeType": {"name": "Данные о наименовании/адресе ТП, где открыт счет", "codeName": "ATTR_OPENED_ACCOUNT_DEPT_DATA"}}, {"id": "bd1a7635-cdc5-4763-a8d2-ffdfa304ab66", "attributeType": {"name": "Платежные документы", "codeName": "ATTR_PAYMENT_DOCUMENT"}}, {"id": "4fd1dda8-40c5-448f-bcd9-35aa204ea45b", "attributeType": {"name": "Сведения о наличии счетов и банковских карт (справки)", "codeName": "ATTR_EXIST_ACCOUNT_CARD_CERT"}}], "productType": {"name": "Счет", "codeName": "PROD_ACCOUNT"}}], "targetType": {"name": "Неопределенный клиент", "codeName": "TARGET_UNDEFINED_CLIENT"}}], "isParsed": true, "repeated": false, "applicant": {"name": "УМВД России по г. Волжскому", "address": "Волгоградская обл. , г. Волжский, ул. Набережная, д.5, 404130", "applicantType": {"name": "МВД", "codeName": "FOIV_MVD"}}, "regNumber": "346589", "isNeedDisk": false, "documentDate": "2025-05-12", "documentType": {"name": "Запрос МВД", "codeName": "REQ_MVD"}, "isPersonally": false, "requestBasis": {"date": "2025-04-26", "values": ["1111111111111"], "requestBasisType": {"name": "Уголовное дело", "codeName": "BASIS_CRIMINAL_CASE"}}, "requestSource": "SDO_FOIV", "documentNumber": "11/11000111- 111", "inquirySignature": {"hasStamp": true, "approverName": "Н.С. Чвапвапав", "approverPosition": {"name": "Старший следователь", "codeName": "POS_SENIOR_INSPECTOR"}, "approverSignature": true}, "isNeedExcelFormat": false}</t>
+  </si>
+  <si>
+    <t>{"dueDate": "2025-06-06", "regDate": "2025-06-03", "targets": [{"id": "5b02b153-aa6b-4bde-82dd-b432e278b9ee", "value": "379808", "products": [{"id": "a732bcf0-5bc6-42ef-bf44-6831be160b5e", "rejected": false, "attributes": [{"id": "eaa0e1a2-6849-4b84-9cc8-91bbf099ca98", "toDate": "2025-05-29", "isLegal": true, "fromDate": "1990-10-17", "rejected": false, "sourceDates": {"sourceToDate": "2025-05-29", "sourceFromDate": "1990-10-17"}, "attributeType": {"name": "Анкетные данные", "codeName": "ATTR_CLIENT_PERS_DATA"}}, {"id": "15309b27-f978-4226-8eab-a95dcacf8448", "toDate": "2025-05-29", "isLegal": true, "fromDate": "1990-10-17", "rejected": false, "sourceDates": {"sourceToDate": "2025-05-29", "sourceFromDate": "1990-10-17"}, "attributeType": {"name": "Данные о наименовании/адресе ТП, где открыт счет", "codeName": "ATTR_OPENED_ACCOUNT_DEPT_DATA"}}], "operations": [{}], "productType": {"name": "Карта", "codeName": "PROD_CARD"}}], "rejected": false, "targetType": {"name": "Банкомат", "codeName": "TARGET_ATM"}, "factAddress": "-"}], "isParsed": true, "rejected": false, "repeated": false, "applicant": {"name": "УМВД России по г. Волжскому", "address": "Волгоградская обл. , г. Волжский, ул. Набережная, д.5, 404130", "applicantType": {"name": "МВД", "codeName": "FOIV_MVD"}}, "regNumber": "346589", "isNeedDisk": false, "isVerified": true, "documentDate": "2025-05-12", "documentType": {"name": "Запрос МВД с уголовным делом", "codeName": "REQ_MVD_CRIMINAL"}, "isPersonally": false, "requestBasis": {"date": "2025-04-26", "values": ["111111111111111111"], "legalClauseTypes": [], "requestBasisType": {"name": "Уголовное дело", "codeName": "BASIS_CRIMINAL_CASE"}}, "hasTechErrors": false, "requestSource": "SDO_FOIV", "documentNumber": "41/37000287-8320", "inquirySignature": {"hasStamp": true, "approverName": "-", "signerSignature": false, "approverPosition": {"name": "Руководитель", "codeName": "POS_MANAGER"}, "approverSignature": true}, "isNeedExcelFormat": false, "sdoTotalPageCount": 0, "manualTaskPerformed": true, "hasBusinessLogicErrors": false}</t>
+  </si>
+  <si>
+    <t>["2f5778c9-e02b-4e1a-b251-0a92485d4d78"]</t>
+  </si>
+  <si>
+    <t>778087/100</t>
+  </si>
+  <si>
+    <t>b4593a35-bd27-4b39-b786-d07a90fdc17c</t>
+  </si>
+  <si>
+    <t>2025-06-06 18:49:18.195 +0300</t>
+  </si>
+  <si>
+    <t>{"dueDate": "предельно короткие", "regDate": "2025-06-06", "isParsed": true, "repeated": false, "applicant": {"name": "СУ", "address": "173003, Великий Новгород, ул. Кооперативная, Эа", "applicantType": {"name": "МВД", "codeName": "FOIV_MVD"}}, "regNumber": "778087/100", "isNeedDisk": false, "documentType": {"name": "Запрос МВД", "codeName": "REQ_MVD"}, "isPersonally": false, "requestBasis": {"date": "2024-07-15", "values": ["11111111111111"], "requestBasisType": {"name": "Уголовное дело", "codeName": "BASIS_CRIMINAL_CASE"}}, "requestSource": "SDO_FOIV", "documentNumber": "7362 - аа", "inquirySignature": {"hasStamp": true, "approverName": "Шываываыва А.В", "approverPosition": {"name": "Следователь", "codeName": "POS_INSPECTOR"}, "approverSignature": true}, "isNeedExcelFormat": false}</t>
+  </si>
+  <si>
+    <t>{"dueDate": "2025-06-10", "regDate": "2025-06-06", "targets": [{"id": "2d2db331-1118-46eb-bf41-8572ab0c8e3f", "rejected": true}], "isParsed": true, "rejected": true, "repeated": false, "applicant": {"name": "СУ УМВД России по г. Великий Новгород", "address": "173003, Великий Новгород, ул. Кооперативная,  9 а", "applicantType": {"name": "МВД", "codeName": "FOIV_MVD"}}, "regNumber": "778087/100", "isNeedDisk": false, "isVerified": true, "documentType": {"name": "Запрос МВД", "codeName": "REQ_MVD"}, "isPersonally": false, "requestBasis": {"date": "2024-07-15", "values": ["111111111111111"], "legalClauseTypes": [], "requestBasisType": {"name": "Уголовное дело", "codeName": "BASIS_CRIMINAL_CASE"}}, "hasTechErrors": true, "requestSource": "SDO_FOIV", "documentNumber": "от", "inquirySignature": {"hasStamp": true, "approverName": "Швапвапавп А.В", "signerSignature": false, "approverPosition": {"name": "Руководитель", "codeName": "POS_MANAGER"}, "approverSignature": true}, "rejectionReasons": [{"name": "Иное", "codeName": "CR_OTHER"}], "isNeedExcelFormat": false, "sdoTotalPageCount": 0, "manualTaskPerformed": true}</t>
+  </si>
+  <si>
+    <t>["f5283a9e-fc25-4a2a-8250-47aecdb61517"]</t>
+  </si>
+  <si>
+    <t>no_product</t>
+  </si>
+  <si>
+    <t>774009/761</t>
+  </si>
+  <si>
+    <t>8af208e1-95c9-43e4-9fa0-5c85a7959681</t>
+  </si>
+  <si>
+    <t>2025-02-10 11:06:18.583 +0300</t>
+  </si>
+  <si>
+    <t>{"dueDate": "трехдневный срок", "regDate": "2025-02-10", "targets": [{"id": "8019cfda-bb15-4158-a063-d92862d2f41c", "products": [{"id": "f05c84e7-833a-4887-a11d-7c2b7b70da63", "attributes": [{"id": "0484c29c-c243-4c1b-bcb9-0e51a14f4f1c", "attributeType": {"name": "Выписки", "codeName": "ATTR_BANK_STATEMENT"}}, {"id": "6bf2b1c2-6b63-4947-9b23-9a4edfe5e77b", "attributeType": {"name": "Сведения о наличии счетов и банковских карт (справки)", "codeName": "ATTR_EXIST_ACCOUNT_CARD_CERT"}}], "productType": {"name": "Счет", "codeName": "PROD_ACCOUNT"}}], "targetType": {"name": "Неопределенный клиент", "codeName": "TARGET_UNDEFINED_CLIENT"}}], "isParsed": true, "repeated": false, "applicant": {"name": "СОВЕТСКИЙ районный суд г. Брянска", "address": "ул. Фокина, д. 45, г. Брянск, 241050", "applicantType": {"name": "Суд", "codeName": "FOIV_COURT"}}, "regNumber": "774009/761", "isNeedDisk": false, "documentType": {"name": "Запрос суда", "codeName": "REQ_COURT"}, "isPersonally": false, "requestBasis": {"values": ["2-374/2025"], "requestBasisType": {"name": "Гражданское дело", "codeName": "BASIS_CIVIL_CASE"}}, "requestSource": "SDO_FOIV", "documentNumber": "Б/Н", "inquirySignature": {"hasStamp": true, "approverName": "Советского", "approverPosition": {"name": "Судья", "codeName": "POS_JUDGE"}, "approverSignature": true}, "isNeedExcelFormat": false}</t>
+  </si>
+  <si>
+    <t>{"dueDate": "2025-02-20", "regDate": "2025-02-10", "targets": [{"id": "fe10d6cd-acdf-4bda-9979-d6eddc046569", "products": [{"id": "f7c376e0-c0de-4b0a-b0f9-16fa65e82a4c", "rejected": true, "attributes": [{"id": "7fc20cd1-3d8c-4fef-924c-9f63f6aadf33", "isLegal": false, "rejected": true}], "operations": [{}]}], "rejected": true, "targetType": {"name": "Неопределенный клиент", "codeName": "TARGET_UNDEFINED_CLIENT"}}], "isParsed": true, "rejected": true, "repeated": false, "applicant": {"name": "СОВЕТСКИЙ районный суд г. Брянска", "address": "ул. Фокина, д. 45, г. Брянск, 241050", "applicantType": {"name": "Суд", "codeName": "FOIV_COURT"}}, "regNumber": "774009/761", "isNeedDisk": false, "isVerified": true, "documentDate": "2025-02-06", "documentType": {"name": "Запрос суда", "codeName": "REQ_COURT"}, "isPersonally": false, "requestBasis": {"values": ["2-374/2025"], "legalClauseTypes": [], "requestBasisType": {"name": "Гражданское дело", "codeName": "BASIS_CIVIL_CASE"}}, "hasTechErrors": true, "requestSource": "SDO_FOIV", "documentNumber": "2-374/2025", "inquirySignature": {"hasStamp": true, "approverName": "М.Р. Бываываывав", "signerSignature": false, "approverPosition": {"name": "Судья", "codeName": "POS_JUDGE"}, "approverSignature": true}, "rejectionReasons": [{"name": "Иное", "codeName": "CR_OTHER"}], "isNeedExcelFormat": false, "sdoTotalPageCount": 0, "manualTaskPerformed": true}</t>
+  </si>
+  <si>
+    <t>["e79327eb-597a-4a33-b9f7-84a837a53b1a"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +129,16 @@
     <font>
       <sz val="12"/>
       <name val="XO Thames"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="XO Thames"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,20 +158,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,64 +463,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="2">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45334.627824074101</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
